--- a/natmiOut/OldD2/LR-pairs_lrc2p/Tnfsf13-Tnfrsf13b.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Tnfsf13-Tnfrsf13b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.376315545296763</v>
+        <v>0.7536765000000001</v>
       </c>
       <c r="H2">
-        <v>0.376315545296763</v>
+        <v>1.507353</v>
       </c>
       <c r="I2">
-        <v>0.0398482956720743</v>
+        <v>0.07241044948256109</v>
       </c>
       <c r="J2">
-        <v>0.0398482956720743</v>
+        <v>0.05015328104483915</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.1654676704773</v>
+        <v>11.23020933333333</v>
       </c>
       <c r="N2">
-        <v>11.1654676704773</v>
+        <v>33.690628</v>
       </c>
       <c r="O2">
-        <v>0.4111063070674829</v>
+        <v>0.4111393124289954</v>
       </c>
       <c r="P2">
-        <v>0.4111063070674829</v>
+        <v>0.4111393124289954</v>
       </c>
       <c r="Q2">
-        <v>4.201739054909043</v>
+        <v>8.463944864614001</v>
       </c>
       <c r="R2">
-        <v>4.201739054909043</v>
+        <v>50.783669187684</v>
       </c>
       <c r="S2">
-        <v>0.01638188567667963</v>
+        <v>0.02977078241293467</v>
       </c>
       <c r="T2">
-        <v>0.01638188567667963</v>
+        <v>0.02061998548483333</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.376315545296763</v>
+        <v>0.7536765000000001</v>
       </c>
       <c r="H3">
-        <v>0.376315545296763</v>
+        <v>1.507353</v>
       </c>
       <c r="I3">
-        <v>0.0398482956720743</v>
+        <v>0.07241044948256109</v>
       </c>
       <c r="J3">
-        <v>0.0398482956720743</v>
+        <v>0.05015328104483915</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>15.9940953878547</v>
+        <v>16.08464233333333</v>
       </c>
       <c r="N3">
-        <v>15.9940953878547</v>
+        <v>48.253927</v>
       </c>
       <c r="O3">
-        <v>0.5888936929325171</v>
+        <v>0.5888606875710045</v>
       </c>
       <c r="P3">
-        <v>0.5888936929325171</v>
+        <v>0.5888606875710045</v>
       </c>
       <c r="Q3">
-        <v>6.018826727408983</v>
+        <v>12.1226169375385</v>
       </c>
       <c r="R3">
-        <v>6.018826727408983</v>
+        <v>72.73570162523102</v>
       </c>
       <c r="S3">
-        <v>0.02346640999539467</v>
+        <v>0.04263966706962641</v>
       </c>
       <c r="T3">
-        <v>0.02346640999539467</v>
+        <v>0.02953329556000581</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>3.35356565893555</v>
+        <v>0.1204533333333333</v>
       </c>
       <c r="H4">
-        <v>3.35356565893555</v>
+        <v>0.36136</v>
       </c>
       <c r="I4">
-        <v>0.3551112294008332</v>
+        <v>0.01157271058383726</v>
       </c>
       <c r="J4">
-        <v>0.3551112294008332</v>
+        <v>0.01202332143722344</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.1654676704773</v>
+        <v>11.23020933333333</v>
       </c>
       <c r="N4">
-        <v>11.1654676704773</v>
+        <v>33.690628</v>
       </c>
       <c r="O4">
-        <v>0.4111063070674829</v>
+        <v>0.4111393124289954</v>
       </c>
       <c r="P4">
-        <v>0.4111063070674829</v>
+        <v>0.4111393124289954</v>
       </c>
       <c r="Q4">
-        <v>37.44412894566779</v>
+        <v>1.352716148231111</v>
       </c>
       <c r="R4">
-        <v>37.44412894566779</v>
+        <v>12.17444533408</v>
       </c>
       <c r="S4">
-        <v>0.1459884661171703</v>
+        <v>0.00475799627237861</v>
       </c>
       <c r="T4">
-        <v>0.1459884661171703</v>
+        <v>0.004943260108812847</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +714,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>3.35356565893555</v>
+        <v>0.1204533333333333</v>
       </c>
       <c r="H5">
-        <v>3.35356565893555</v>
+        <v>0.36136</v>
       </c>
       <c r="I5">
-        <v>0.3551112294008332</v>
+        <v>0.01157271058383726</v>
       </c>
       <c r="J5">
-        <v>0.3551112294008332</v>
+        <v>0.01202332143722344</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.9940953878547</v>
+        <v>16.08464233333333</v>
       </c>
       <c r="N5">
-        <v>15.9940953878547</v>
+        <v>48.253927</v>
       </c>
       <c r="O5">
-        <v>0.5888936929325171</v>
+        <v>0.5888606875710045</v>
       </c>
       <c r="P5">
-        <v>0.5888936929325171</v>
+        <v>0.5888606875710045</v>
       </c>
       <c r="Q5">
-        <v>53.63724903844899</v>
+        <v>1.937448784524445</v>
       </c>
       <c r="R5">
-        <v>53.63724903844899</v>
+        <v>17.43703906072</v>
       </c>
       <c r="S5">
-        <v>0.2091227632836629</v>
+        <v>0.006814714311458651</v>
       </c>
       <c r="T5">
-        <v>0.2091227632836629</v>
+        <v>0.007080061328410596</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +776,61 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.36549438862542</v>
+        <v>3.418481</v>
       </c>
       <c r="H6">
-        <v>4.36549438862542</v>
+        <v>10.255443</v>
       </c>
       <c r="I6">
-        <v>0.4622650148973883</v>
+        <v>0.3284350059443208</v>
       </c>
       <c r="J6">
-        <v>0.4622650148973883</v>
+        <v>0.341223399574173</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.1654676704773</v>
+        <v>11.23020933333333</v>
       </c>
       <c r="N6">
-        <v>11.1654676704773</v>
+        <v>33.690628</v>
       </c>
       <c r="O6">
-        <v>0.4111063070674829</v>
+        <v>0.4111393124289954</v>
       </c>
       <c r="P6">
-        <v>0.4111063070674829</v>
+        <v>0.4111393124289954</v>
       </c>
       <c r="Q6">
-        <v>48.74278646184719</v>
+        <v>38.39025723202267</v>
       </c>
       <c r="R6">
-        <v>48.74278646184719</v>
+        <v>345.512315088204</v>
       </c>
       <c r="S6">
-        <v>0.1900400631609603</v>
+        <v>0.135032542521561</v>
       </c>
       <c r="T6">
-        <v>0.1900400631609603</v>
+        <v>0.1402903538856098</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +838,61 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.36549438862542</v>
+        <v>3.418481</v>
       </c>
       <c r="H7">
-        <v>4.36549438862542</v>
+        <v>10.255443</v>
       </c>
       <c r="I7">
-        <v>0.4622650148973883</v>
+        <v>0.3284350059443208</v>
       </c>
       <c r="J7">
-        <v>0.4622650148973883</v>
+        <v>0.341223399574173</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.9940953878547</v>
+        <v>16.08464233333333</v>
       </c>
       <c r="N7">
-        <v>15.9940953878547</v>
+        <v>48.253927</v>
       </c>
       <c r="O7">
-        <v>0.5888936929325171</v>
+        <v>0.5888606875710045</v>
       </c>
       <c r="P7">
-        <v>0.5888936929325171</v>
+        <v>0.5888606875710045</v>
       </c>
       <c r="Q7">
-        <v>69.8221336668194</v>
+        <v>54.98504420829568</v>
       </c>
       <c r="R7">
-        <v>69.8221336668194</v>
+        <v>494.8653978746611</v>
       </c>
       <c r="S7">
-        <v>0.2722249517364281</v>
+        <v>0.1934024634227597</v>
       </c>
       <c r="T7">
-        <v>0.2722249517364281</v>
+        <v>0.2009330456885631</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.944953715937822</v>
+        <v>4.597592</v>
       </c>
       <c r="H8">
-        <v>0.944953715937822</v>
+        <v>13.792776</v>
       </c>
       <c r="I8">
-        <v>0.1000617581169043</v>
+        <v>0.44171962805982</v>
       </c>
       <c r="J8">
-        <v>0.1000617581169043</v>
+        <v>0.4589190263438705</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.1654676704773</v>
+        <v>11.23020933333333</v>
       </c>
       <c r="N8">
-        <v>11.1654676704773</v>
+        <v>33.690628</v>
       </c>
       <c r="O8">
-        <v>0.4111063070674829</v>
+        <v>0.4111393124289954</v>
       </c>
       <c r="P8">
-        <v>0.4111063070674829</v>
+        <v>0.4111393124289954</v>
       </c>
       <c r="Q8">
-        <v>10.55085016540114</v>
+        <v>51.63192058925866</v>
       </c>
       <c r="R8">
-        <v>10.55085016540114</v>
+        <v>464.6872853033279</v>
       </c>
       <c r="S8">
-        <v>0.04113601985812025</v>
+        <v>0.181608304166906</v>
       </c>
       <c r="T8">
-        <v>0.04113601985812025</v>
+        <v>0.1886796529516029</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +962,61 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.944953715937822</v>
+        <v>4.597592</v>
       </c>
       <c r="H9">
-        <v>0.944953715937822</v>
+        <v>13.792776</v>
       </c>
       <c r="I9">
-        <v>0.1000617581169043</v>
+        <v>0.44171962805982</v>
       </c>
       <c r="J9">
-        <v>0.1000617581169043</v>
+        <v>0.4589190263438705</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>15.9940953878547</v>
+        <v>16.08464233333333</v>
       </c>
       <c r="N9">
-        <v>15.9940953878547</v>
+        <v>48.253927</v>
       </c>
       <c r="O9">
-        <v>0.5888936929325171</v>
+        <v>0.5888606875710045</v>
       </c>
       <c r="P9">
-        <v>0.5888936929325171</v>
+        <v>0.5888606875710045</v>
       </c>
       <c r="Q9">
-        <v>15.11367986981728</v>
+        <v>73.95062291459467</v>
       </c>
       <c r="R9">
-        <v>15.11367986981728</v>
+        <v>665.555606231352</v>
       </c>
       <c r="S9">
-        <v>0.05892573825878403</v>
+        <v>0.260111323892914</v>
       </c>
       <c r="T9">
-        <v>0.05892573825878403</v>
+        <v>0.2702393733922675</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1024,61 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.4033755962673</v>
+        <v>1.101608333333333</v>
       </c>
       <c r="H10">
-        <v>0.4033755962673</v>
+        <v>3.304825</v>
       </c>
       <c r="I10">
-        <v>0.04271370191279979</v>
+        <v>0.1058384526655689</v>
       </c>
       <c r="J10">
-        <v>0.04271370191279979</v>
+        <v>0.1099595231037524</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.1654676704773</v>
+        <v>11.23020933333333</v>
       </c>
       <c r="N10">
-        <v>11.1654676704773</v>
+        <v>33.690628</v>
       </c>
       <c r="O10">
-        <v>0.4111063070674829</v>
+        <v>0.4111393124289954</v>
       </c>
       <c r="P10">
-        <v>0.4111063070674829</v>
+        <v>0.4111393124289954</v>
       </c>
       <c r="Q10">
-        <v>4.503877179182042</v>
+        <v>12.37129218667778</v>
       </c>
       <c r="R10">
-        <v>4.503877179182042</v>
+        <v>111.3416296801</v>
       </c>
       <c r="S10">
-        <v>0.0175598722545524</v>
+        <v>0.04351434865747077</v>
       </c>
       <c r="T10">
-        <v>0.0175598722545524</v>
+        <v>0.045208682723897</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1086,185 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.101608333333333</v>
+      </c>
+      <c r="H11">
+        <v>3.304825</v>
+      </c>
+      <c r="I11">
+        <v>0.1058384526655689</v>
+      </c>
+      <c r="J11">
+        <v>0.1099595231037524</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>16.08464233333333</v>
+      </c>
+      <c r="N11">
+        <v>48.253927</v>
+      </c>
+      <c r="O11">
+        <v>0.5888606875710045</v>
+      </c>
+      <c r="P11">
+        <v>0.5888606875710045</v>
+      </c>
+      <c r="Q11">
+        <v>17.71897603308611</v>
+      </c>
+      <c r="R11">
+        <v>159.470784297775</v>
+      </c>
+      <c r="S11">
+        <v>0.06232410400809811</v>
+      </c>
+      <c r="T11">
+        <v>0.0647508403798554</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.4033755962673</v>
-      </c>
-      <c r="H11">
-        <v>0.4033755962673</v>
-      </c>
-      <c r="I11">
-        <v>0.04271370191279979</v>
-      </c>
-      <c r="J11">
-        <v>0.04271370191279979</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>15.9940953878547</v>
-      </c>
-      <c r="N11">
-        <v>15.9940953878547</v>
-      </c>
-      <c r="O11">
-        <v>0.5888936929325171</v>
-      </c>
-      <c r="P11">
-        <v>0.5888936929325171</v>
-      </c>
-      <c r="Q11">
-        <v>6.451627763831962</v>
-      </c>
-      <c r="R11">
-        <v>6.451627763831962</v>
-      </c>
-      <c r="S11">
-        <v>0.02515382965824739</v>
-      </c>
-      <c r="T11">
-        <v>0.02515382965824739</v>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.416583</v>
+      </c>
+      <c r="H12">
+        <v>0.8331660000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.04002375326389206</v>
+      </c>
+      <c r="J12">
+        <v>0.02772144849614155</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>11.23020933333333</v>
+      </c>
+      <c r="N12">
+        <v>33.690628</v>
+      </c>
+      <c r="O12">
+        <v>0.4111393124289954</v>
+      </c>
+      <c r="P12">
+        <v>0.4111393124289954</v>
+      </c>
+      <c r="Q12">
+        <v>4.678314294708001</v>
+      </c>
+      <c r="R12">
+        <v>28.069885768248</v>
+      </c>
+      <c r="S12">
+        <v>0.01645533839774434</v>
+      </c>
+      <c r="T12">
+        <v>0.01139737727423944</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.416583</v>
+      </c>
+      <c r="H13">
+        <v>0.8331660000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.04002375326389206</v>
+      </c>
+      <c r="J13">
+        <v>0.02772144849614155</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>16.08464233333333</v>
+      </c>
+      <c r="N13">
+        <v>48.253927</v>
+      </c>
+      <c r="O13">
+        <v>0.5888606875710045</v>
+      </c>
+      <c r="P13">
+        <v>0.5888606875710045</v>
+      </c>
+      <c r="Q13">
+        <v>6.700588557147001</v>
+      </c>
+      <c r="R13">
+        <v>40.20353134288201</v>
+      </c>
+      <c r="S13">
+        <v>0.02356841486614771</v>
+      </c>
+      <c r="T13">
+        <v>0.0163240712219021</v>
       </c>
     </row>
   </sheetData>
